--- a/model/src/rag_no_prompting_easy_Llama3B_results.xlsx
+++ b/model/src/rag_no_prompting_easy_Llama3B_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\model\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0690E9FA-C1D9-4DEC-B883-5F2849739716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EE5CF0-6F4F-40D5-9DFD-22597EE553CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="153">
   <si>
     <t>question</t>
   </si>
@@ -114,14 +114,6 @@
 Document 2:
 Postgraduate Program In Business Intelligence And Analytics For Hospitality Tourism postgraduate First Semester 1 st year - Fall Semester Course Units Type Duration ECTS Data Science for Hospitaly and Tourism II Mandatory Semester 7,5 Digital Marketing Mandatory Semester 7,5 Project in Analytics for Hospitality and Tourism Mandatory Semester 7,5 Smart Tourism Mandatory Semester 7,5 Course UnitKeywords: curriculum, syllabus, program overview, academic plan, course structure, degree requirements, credit distribution, module list, subject breakdown, learning outcomes, ECTS allocation, semester planning, course roadmap, educational objectives, program outline, instructional content, course progression, academic curriculum, study track, course catalog, study plan
 Metadata: {'course_name': 'Postgraduate Program In Business Intelligence And Analytics For Hospitality Tourism', 'degree': 'postgraduate', 'doc_type': 'study_plan', 'id': '3103ae2a-cac2-4423-b15e-b684b8bb7f14', 'source': 'postgraduate-program-in-business-intelligence-and-analytics-for-hospitality-tourism_Study plan.txt'}</t>
-  </si>
-  <si>
-    <t>What are the course units of the Fall semesters for the Master Degree Program In Data Science And Advanced Analytics With A Specialization In Business Analytics?</t>
-  </si>
-  <si>
-    <t>Machine Learning (Mandatory, Semester 7.5), Storing and Retrieving Data (Mandatory, Quarterly 4), Programming for Data Science (Mandatory, Quarterly 3.5) in the first semester, and 
-Research Methods (Mandatory, Annual 6), and 
-Course Unit (no specific details given) in the second semester.</t>
   </si>
   <si>
     <t>Document 1:
@@ -926,21 +918,6 @@
 Metadata: {'course_name': 'Postgraduate Program In Business Intelligence', 'degree': 'postgraduate', 'doc_type': 'study_plan', 'id': '8e619601-aa42-4c72-9c50-c2b40178f697', 'source': 'postgraduate-program-in-business-intelligence_Study plan.txt'}</t>
   </si>
   <si>
-    <t>What programming languages are taught in the Bachelor's in Data Science?</t>
-  </si>
-  <si>
-    <t>The course teaches Programming for Data Science, which implies that it uses at least one programming language. However, no specific programming language is mentioned as part of the other courses (Data Preprocessing and Visualization, Databases, Machine Learning I, Statistical Inference).</t>
-  </si>
-  <si>
-    <t>Document 1:
-Data Science bachelor What is the language of instruction of the course?
-The course is taught in English. Nowadays, being comfortable with the English language is a competitive advantage, which makes a difference in the global job market. NOVA IMS students have all the support to quickly adapt to the language and can always speak in Portuguese when they are unable to express themselves.
-Metadata: {'degree': 'bachelor', 'doc_type': 'main_info', 'course_name': 'Data Science', 'section': 'What is the language of instruction of the course?', 'id': 'fceef734-ee09-4571-b984-15a1216d9bc7'}
-Document 2:
-Data Science bachelor First Semester 2 nd year - Fall Semester Course Units Duration Type Contact Hours Total Workload ECTS Data preprocessing and visualization Semester Mandatory TP - 67,5 | OT - 7,5 168 6 Databases Semester Mandatory TP - 64,5 | S - 3 | OT - 7,5 168 6 Machine Learning I Semester Mandatory TP - 67,5 | OT - 7,5 168 6 Programming for Data Science Semester Mandatory TP - 67,5 | OT - 7,5 168 6 Statistical Inference Semester Mandatory TP - 67,5 | OT - 7,5 168 6 Show subtitles T – Theoretical Teaching; TP – Theoretical/ Practical Teaching; TC – Field Work; PL – Theoretical/ Practical Teaching; S – Seminar; OT – Tutor Group; ** – Course Unit available in both semesters; Semestre 2 - 1;Keywords: curriculum, syllabus, program overview, academic plan, course structure, degree requirements, credit distribution, module list, subject breakdown, learning outcomes, ECTS allocation, semester planning, course roadmap, educational objectives, program outline, instructional content, course progression, academic curriculum, study track, course catalog, study plan
-Metadata: {'course_name': 'Data Science', 'degree': 'bachelor', 'doc_type': 'study_plan', 'id': 'c085af09-e2ca-4434-a7a5-65d923355fda', 'source': 'bachelor_data-science_studyplan_text.txt'}</t>
-  </si>
-  <si>
     <t>How does the Master in Information Management, with a specialization in Business Intelligence prepare students for the digital transformation of businesses?</t>
   </si>
   <si>
@@ -963,9 +940,6 @@
   </si>
   <si>
     <t>What are the admission fees for the Postgraduate Program In Business Intelligence And Analytics For Hospitality Tourism?</t>
-  </si>
-  <si>
-    <t>The application fee is €51. The pre-registration fee is around €1,250 for EU and Portuguese-speaking countries and €2,500 for other countries. The enrollment fee is €35, and the annual school insurance is €1.40. The tuition fee is €4,100.</t>
   </si>
   <si>
     <t>Document 1:
@@ -1298,6 +1272,15 @@
   </si>
   <si>
     <t>Average Faithfulness score</t>
+  </si>
+  <si>
+    <t>What are the mandatory course units of the Fall semesters for the Master Degree Program In Data Science And Advanced Analytics With A Specialization In Business Analytics?</t>
+  </si>
+  <si>
+    <t>Machine Learning (Semester 7,5), Data Mining (Semester 7,5), Programming for Data Science (Quarterly 3,5), Statistics for Data Science (Semester 7,5), Storing and Retrieving Data (Quarterly 4).</t>
+  </si>
+  <si>
+    <t>The admission fee for the Postgraduate Program In Business Intelligence And Analytics For Hospitality Tourism is €51. This fee is non-refundable in case of withdrawal or non-admission. Please note that the application can only be considered after the payment of the admission fee within the stipulated period. Would you like me to clarify anything?</t>
   </si>
 </sst>
 </file>
@@ -1681,10 +1664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1707,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1780,13 +1763,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
       </c>
       <c r="D6">
         <v>135.93694734573361</v>
@@ -1797,13 +1780,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
       </c>
       <c r="D7">
         <v>291.96197056770319</v>
@@ -1814,13 +1797,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8">
         <v>276.75737380981451</v>
@@ -1831,13 +1814,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
       </c>
       <c r="D9">
         <v>180.80693626403809</v>
@@ -1848,13 +1831,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
       </c>
       <c r="D10">
         <v>297.22051978111273</v>
@@ -1865,13 +1848,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
       </c>
       <c r="D11">
         <v>185.41999578475949</v>
@@ -1882,13 +1865,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
       </c>
       <c r="D12">
         <v>169.09872341156009</v>
@@ -1899,13 +1882,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
       </c>
       <c r="D13">
         <v>184.20250773429871</v>
@@ -1916,13 +1899,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
         <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
       </c>
       <c r="D14">
         <v>191.05343699455261</v>
@@ -1933,13 +1916,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>179.2512001991272</v>
@@ -1950,13 +1933,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
         <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
       </c>
       <c r="D16">
         <v>261.59958577156073</v>
@@ -1967,13 +1950,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
         <v>48</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
       </c>
       <c r="D17">
         <v>133.7985026836395</v>
@@ -1984,13 +1967,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
       </c>
       <c r="D18">
         <v>202.95923709869379</v>
@@ -2001,13 +1984,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
         <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
       </c>
       <c r="D19">
         <v>151.66262102127081</v>
@@ -2018,13 +2001,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
         <v>57</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
       </c>
       <c r="D20">
         <v>87.438337802886963</v>
@@ -2035,13 +2018,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
         <v>60</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
       </c>
       <c r="D21">
         <v>148.59570527076721</v>
@@ -2052,13 +2035,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
         <v>63</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
       </c>
       <c r="D22">
         <v>227.9940621852875</v>
@@ -2069,13 +2052,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
         <v>66</v>
-      </c>
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
       </c>
       <c r="D23">
         <v>156.65828776359561</v>
@@ -2086,13 +2069,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
         <v>69</v>
-      </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
       </c>
       <c r="D24">
         <v>160.55526494979861</v>
@@ -2103,13 +2086,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
         <v>72</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
       </c>
       <c r="D25">
         <v>125.72289395332341</v>
@@ -2120,13 +2103,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
         <v>75</v>
-      </c>
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
       </c>
       <c r="D26">
         <v>272.34134292602539</v>
@@ -2137,13 +2120,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
         <v>78</v>
-      </c>
-      <c r="B27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
       </c>
       <c r="D27">
         <v>211.83693051338199</v>
@@ -2154,13 +2137,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D28">
         <v>113.89426374435421</v>
@@ -2171,13 +2154,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
         <v>83</v>
-      </c>
-      <c r="B29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" t="s">
-        <v>85</v>
       </c>
       <c r="D29">
         <v>236.7245526313782</v>
@@ -2188,13 +2171,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
         <v>86</v>
-      </c>
-      <c r="B30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" t="s">
-        <v>88</v>
       </c>
       <c r="D30">
         <v>263.99338412284851</v>
@@ -2205,50 +2188,50 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
         <v>89</v>
       </c>
-      <c r="B31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" t="s">
-        <v>91</v>
-      </c>
       <c r="D31">
-        <v>113.6962637901306</v>
+        <v>208.74033761024481</v>
       </c>
       <c r="E31" s="4">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D32">
-        <v>208.74033761024481</v>
+        <v>132.797607421875</v>
       </c>
       <c r="E32" s="4">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D33">
-        <v>132.797607421875</v>
+        <v>246.2741365432739</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -2256,16 +2239,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D34">
-        <v>246.2741365432739</v>
+        <v>252.42821073532099</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -2273,16 +2256,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D35">
-        <v>252.42821073532099</v>
+        <v>155.21274924278259</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -2290,50 +2273,50 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D36">
-        <v>155.21274924278259</v>
+        <v>2373.1718904972081</v>
       </c>
       <c r="E36" s="4">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D37">
-        <v>2373.1718904972081</v>
+        <v>150.26965308189389</v>
       </c>
       <c r="E37" s="4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D38">
-        <v>150.26965308189389</v>
+        <v>168.3553059101105</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
@@ -2341,16 +2324,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D39">
-        <v>168.3553059101105</v>
+        <v>291.58538603782648</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -2358,16 +2341,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D40">
-        <v>291.58538603782648</v>
+        <v>170.0959837436676</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
@@ -2375,50 +2358,50 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D41">
-        <v>170.0959837436676</v>
+        <v>197.7875151634216</v>
       </c>
       <c r="E41" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D42">
-        <v>197.7875151634216</v>
+        <v>2581.9316515922551</v>
       </c>
       <c r="E42" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D43">
-        <v>2581.9316515922551</v>
+        <v>216.46884560585019</v>
       </c>
       <c r="E43" s="4">
         <v>1</v>
@@ -2426,16 +2409,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D44">
-        <v>216.46884560585019</v>
+        <v>227.89372754096979</v>
       </c>
       <c r="E44" s="4">
         <v>1</v>
@@ -2443,16 +2426,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D45">
-        <v>227.89372754096979</v>
+        <v>286.59528303146362</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
@@ -2460,16 +2443,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D46">
-        <v>286.59528303146362</v>
+        <v>281.00532078742981</v>
       </c>
       <c r="E46" s="4">
         <v>1</v>
@@ -2477,82 +2460,84 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47">
+        <v>195.21115303039551</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D47">
-        <v>281.00532078742981</v>
-      </c>
-      <c r="E47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="D48" s="3">
+        <v>107.0973045825958</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>139</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>140</v>
       </c>
-      <c r="C48" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48">
-        <v>195.21115303039551</v>
-      </c>
-      <c r="E48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="3">
-        <v>107.0973045825958</v>
-      </c>
-      <c r="E49" s="5"/>
+      <c r="C49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49">
+        <v>295.81843781471252</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0.875</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D50">
-        <v>295.81843781471252</v>
+        <v>281.8825945854187</v>
       </c>
       <c r="E50" s="4">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D51">
-        <v>281.8825945854187</v>
+        <v>223.64136099815369</v>
       </c>
       <c r="E51" s="4">
         <v>1</v>
@@ -2560,36 +2545,19 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C52" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D52">
-        <v>223.64136099815369</v>
+        <v>213.14897012710571</v>
       </c>
       <c r="E52" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>152</v>
-      </c>
-      <c r="B53" t="s">
-        <v>153</v>
-      </c>
-      <c r="C53" t="s">
-        <v>154</v>
-      </c>
-      <c r="D53">
-        <v>213.14897012710571</v>
-      </c>
-      <c r="E53" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/model/src/rag_no_prompting_easy_Llama3B_results.xlsx
+++ b/model/src/rag_no_prompting_easy_Llama3B_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1176153\Downloads\github\Thesis\model\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EE5CF0-6F4F-40D5-9DFD-22597EE553CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7D6D48-B40E-44C0-B6BD-606073EAF410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1664,10 +1664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2558,6 +2558,12 @@
       </c>
       <c r="E52" s="4">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <f>AVERAGE(D2:D52)</f>
+        <v>294.75751378489474</v>
       </c>
     </row>
   </sheetData>
